--- a/data/balance_sheet/3digits/total/382_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/382_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>382-Waste treatment and disposal</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>382-Waste treatment and disposal</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>181405.93917</v>
@@ -1490,32 +940,37 @@
         <v>235848.31048</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>352560.21059</v>
+        <v>352785.41999</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>447531.85967</v>
+        <v>462442.34034</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>514530.1360599999</v>
+        <v>537292.95687</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>572756.15632</v>
+        <v>573118.77269</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>683547.40966</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>834775.8604199999</v>
+        <v>835198.66547</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>1200076.53746</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>1203251.17132</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>1880282.669</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>137292.65407</v>
@@ -1530,32 +985,37 @@
         <v>88975.43915999999</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>104806.61236</v>
+        <v>104811.52501</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>90424.51152000001</v>
+        <v>91281.25494</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>107676.12422</v>
+        <v>110524.44903</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>124634.59213</v>
+        <v>124736.19236</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>139000.35435</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>82057.81019</v>
+        <v>82197.25834</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>214156.20578</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>214819.17852</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>279725.709</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>1290.81629</v>
@@ -1564,38 +1024,43 @@
         <v>2605.18805</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>3328.744709999999</v>
+        <v>3328.74471</v>
       </c>
       <c r="F7" s="21" t="n">
         <v>5819.18172</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>7520.60499</v>
+        <v>7522.76092</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>4747.63768</v>
+        <v>4767.10726</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>5015.75234</v>
+        <v>5043.0452</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>3766.63244</v>
+        <v>3768.23267</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>6172.87478</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>6404.30788</v>
+        <v>6461.517629999999</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>8365.55186</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>8699.41439</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>12472.489</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>556.10137</v>
@@ -1616,10 +1081,10 @@
         <v>13590.46298</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>3026.60594</v>
+        <v>3062.48994</v>
       </c>
       <c r="J8" s="21" t="n">
-        <v>3409.500559999999</v>
+        <v>3409.50056</v>
       </c>
       <c r="K8" s="22" t="n">
         <v>2462.48446</v>
@@ -1630,12 +1095,17 @@
       <c r="M8" s="22" t="n">
         <v>11501.35272</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>11232.261</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>137749.55543</v>
@@ -1650,32 +1120,37 @@
         <v>65757.73596000001</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>87454.89676999999</v>
+        <v>87457.65349</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>76171.51776999999</v>
+        <v>77008.79161</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>101416.50751</v>
+        <v>104201.65546</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>120247.43674</v>
+        <v>120347.43674</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>134707.08415</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>77837.08394000001</v>
+        <v>77919.32234</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>198915.33791</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>199078.94818</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>264896.478</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>2312.49745</v>
@@ -1690,7 +1165,7 @@
         <v>3656.28562</v>
       </c>
       <c r="G10" s="22" t="n">
-        <v>2974.13263</v>
+        <v>2974.132630000001</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>4153.76509</v>
@@ -1708,14 +1183,19 @@
         <v>5054.750150000001</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>4629.14815</v>
-      </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+        <v>4463.66121</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>9036.124</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>8.678430000000001</v>
@@ -1748,14 +1228,19 @@
         <v>11.40113</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>3.11144</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>3.12444</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>160.605</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>56.881</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>447.5647</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>17106.607</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>15185.834</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>0</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>3.86718</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>446.64881</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>1863.973</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>53.01382</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>0.91589</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>23522.48962</v>
@@ -2004,22 +1519,22 @@
         <v>32534.83733</v>
       </c>
       <c r="E18" s="23" t="n">
-        <v>68135.65827</v>
+        <v>68135.65827000001</v>
       </c>
       <c r="F18" s="33" t="n">
-        <v>71132.2862</v>
+        <v>71132.28619999999</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>106384.91066</v>
+        <v>106509.20856</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>172246.39263</v>
+        <v>185382.61143</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>183040.50865</v>
+        <v>186211.29182</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>199238.62913</v>
+        <v>199238.86513</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>287246.45063</v>
@@ -2028,14 +1543,19 @@
         <v>246944.88873</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>315512.73509</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>317922.80002</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>293006.327</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>19234.67091</v>
@@ -2050,16 +1570,16 @@
         <v>59001.27862</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>91634.20834</v>
+        <v>91758.50623999999</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>152389.44156</v>
+        <v>165404.32005</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>155937.06167</v>
+        <v>158895.04569</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>174420.5655</v>
+        <v>174420.8015</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>250918.8889</v>
@@ -2068,14 +1588,19 @@
         <v>208492.75187</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>292259.02168</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>294584.40029</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>248005.088</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>265.7430400000001</v>
@@ -2093,10 +1618,10 @@
         <v>10899.68047</v>
       </c>
       <c r="H20" s="21" t="n">
-        <v>9487.669260000002</v>
+        <v>9608.859570000001</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>18711.05442</v>
+        <v>18908.16353</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>11177.73024</v>
@@ -2110,12 +1635,17 @@
       <c r="M20" s="22" t="n">
         <v>8298.08368</v>
       </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+      <c r="N20" s="22" t="n">
+        <v>28083.96</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0.38283</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>2222.98023</v>
@@ -2204,7 +1744,7 @@
         <v>1803.16775</v>
       </c>
       <c r="E23" s="22" t="n">
-        <v>6348.03447</v>
+        <v>6348.034470000001</v>
       </c>
       <c r="F23" s="21" t="n">
         <v>1063.50196</v>
@@ -2213,10 +1753,10 @@
         <v>1513.92523</v>
       </c>
       <c r="H23" s="21" t="n">
-        <v>1386.28034</v>
+        <v>1386.43034</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>1252.49242</v>
+        <v>1268.18246</v>
       </c>
       <c r="J23" s="21" t="n">
         <v>1272.07867</v>
@@ -2228,14 +1768,19 @@
         <v>3177.7127</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>2883.620429999999</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>2883.62043</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>7753.71</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>1699.1414</v>
@@ -2259,7 +1804,7 @@
         <v>5460.970649999999</v>
       </c>
       <c r="J24" s="21" t="n">
-        <v>9657.959709999999</v>
+        <v>9657.959710000001</v>
       </c>
       <c r="K24" s="22" t="n">
         <v>8964.12916</v>
@@ -2268,14 +1813,19 @@
         <v>12149.15105</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>8288.092409999999</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>8290.77873</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>5648.562</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>3128.45686</v>
@@ -2293,10 +1843,10 @@
         <v>7230.15979</v>
       </c>
       <c r="H25" s="21" t="n">
-        <v>11246.79132</v>
+        <v>11288.13207</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>13480.84807</v>
+        <v>13542.61778</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>17041.55752</v>
@@ -2308,14 +1858,19 @@
         <v>25415.37121</v>
       </c>
       <c r="M25" s="22" t="n">
-        <v>21673.57855000001</v>
-      </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+        <v>21755.57855</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>20069.979</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>3028.50282</v>
@@ -2333,10 +1888,10 @@
         <v>5886.0252</v>
       </c>
       <c r="H26" s="21" t="n">
-        <v>10972.08726</v>
+        <v>11013.42801</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>11797.93259</v>
+        <v>11859.7023</v>
       </c>
       <c r="J26" s="21" t="n">
         <v>14315.06909</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>17889.27883</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>16554.972</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>7121.712259999999</v>
@@ -2373,29 +1933,34 @@
         <v>33297.24216</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>25768.23853</v>
+        <v>26212.83198</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>41137.69905</v>
+        <v>55412.88117999999</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>62448.94108</v>
+        <v>62450.95316</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>61474.71497</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>133793.9049</v>
+        <v>133985.8514</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>183088.78309</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>183292.69696</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>461704.022</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>738.5310899999999</v>
@@ -2410,13 +1975,13 @@
         <v>5223.94354</v>
       </c>
       <c r="G28" s="22" t="n">
-        <v>5057.825360000001</v>
+        <v>5057.82536</v>
       </c>
       <c r="H28" s="21" t="n">
         <v>16701.52976</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>28126.88629</v>
+        <v>29231.24892</v>
       </c>
       <c r="J28" s="21" t="n">
         <v>22354.39243</v>
@@ -2425,23 +1990,28 @@
         <v>28944.99563</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>64168.54666</v>
+        <v>64360.49316</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>64212.38290999999</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>64218.83633</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>80616.68799999999</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>339.92354</v>
       </c>
       <c r="D29" s="22" t="n">
-        <v>436.8273600000001</v>
+        <v>436.82736</v>
       </c>
       <c r="E29" s="22" t="n">
         <v>223.55783</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>12001.36934</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>320.364</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>297.5018</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>29372.08826</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>114068.111</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>0</v>
@@ -2539,7 +2119,7 @@
         <v>48.45323</v>
       </c>
       <c r="J31" s="21" t="n">
-        <v>85.48495999999999</v>
+        <v>85.48496</v>
       </c>
       <c r="K31" s="22" t="n">
         <v>172.61621</v>
@@ -2550,15 +2130,20 @@
       <c r="M31" s="22" t="n">
         <v>451.71888</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>626.546</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
-        <v>5745.75583</v>
+        <v>5745.755829999999</v>
       </c>
       <c r="D32" s="22" t="n">
         <v>5684.169110000001</v>
@@ -2573,13 +2158,13 @@
         <v>26759.8517</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>6700.670889999999</v>
+        <v>7145.26434</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>11435.29618</v>
+        <v>24606.11568</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>39601.07043</v>
+        <v>39603.08251</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>27098.53113</v>
@@ -2588,14 +2173,19 @@
         <v>54541.37611</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>77051.2237</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>77248.68414999999</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>266072.313</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>9519.767609999999</v>
@@ -2733,29 +2338,34 @@
         <v>70764.70974999999</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>125552.25018</v>
+        <v>125821.65995</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>141862.05895</v>
+        <v>142177.74058</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>116974.89386</v>
+        <v>117006.46245</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>138296.09253</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>288476.21084</v>
+        <v>288532.72003</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>386170.55689</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>385700.4565</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>612276.249</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>3370.97657</v>
@@ -2770,13 +2380,13 @@
         <v>14701.47823</v>
       </c>
       <c r="G37" s="22" t="n">
-        <v>5623.238120000001</v>
+        <v>5623.23812</v>
       </c>
       <c r="H37" s="21" t="n">
-        <v>6055.2057</v>
+        <v>6078.992169999999</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>7409.98813</v>
+        <v>7418.20765</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>9526.590840000001</v>
@@ -2785,17 +2395,22 @@
         <v>9462.90791</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>27217.22449</v>
+        <v>27217.22448999999</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>47307.70001</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>47449.25616</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>144469.568</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>0</v>
@@ -2828,14 +2443,19 @@
         <v>34709.33162999999</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>73516.0047</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>73600.78193000001</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>47884.095</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>1740.69702</v>
@@ -2868,14 +2488,19 @@
         <v>18709.60582</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>23401.3035</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>23061.12173</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>31816.991</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>3092.21111</v>
@@ -2893,10 +2518,10 @@
         <v>39693.18704</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>77589.25365</v>
+        <v>77626.84070999999</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>90730.00431</v>
+        <v>90768.38542999999</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>58861.39565999999</v>
@@ -2908,14 +2533,19 @@
         <v>116918.51068</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>76622.88287</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>76230.82087000001</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>162925.681</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>31.36814</v>
@@ -2933,29 +2563,34 @@
         <v>7794.666639999999</v>
       </c>
       <c r="H41" s="21" t="n">
-        <v>5870.055699999999</v>
+        <v>5870.0557</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>6511.00145</v>
+        <v>6548.86784</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>2922.36928</v>
       </c>
       <c r="K41" s="22" t="n">
-        <v>3237.453669999999</v>
+        <v>3237.45367</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>4473.46607</v>
+        <v>4529.97526</v>
       </c>
       <c r="M41" s="22" t="n">
         <v>7665.62274</v>
       </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+      <c r="N41" s="22" t="n">
+        <v>14580.636</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>1284.51477</v>
@@ -3013,29 +2653,34 @@
         <v>15201.1767</v>
       </c>
       <c r="H43" s="21" t="n">
-        <v>32878.90558</v>
+        <v>33086.94182</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>33274.61656</v>
+        <v>33505.83116</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>31720.17062</v>
+        <v>31751.73921</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>47378.44409</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>86448.07215000001</v>
+        <v>86448.07214999999</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>157657.04307</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>157692.85307</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>210599.278</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>257.93177</v>
@@ -3050,7 +2695,7 @@
         <v>2435.27312</v>
       </c>
       <c r="G44" s="23" t="n">
-        <v>7339.557070000001</v>
+        <v>7339.557069999999</v>
       </c>
       <c r="H44" s="33" t="n">
         <v>295.3202199999999</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>5406.68489</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>22091.633</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>257.93177</v>
@@ -3090,7 +2740,7 @@
         <v>2425.27312</v>
       </c>
       <c r="G45" s="22" t="n">
-        <v>7339.557070000001</v>
+        <v>7339.557069999999</v>
       </c>
       <c r="H45" s="21" t="n">
         <v>75.32022000000001</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>5406.68489</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>22091.633</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1413.6655</v>
@@ -3213,10 +2878,10 @@
         <v>1928.49358</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>3052.30431</v>
+        <v>3186.59409</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>2937.88165</v>
+        <v>3660.46335</v>
       </c>
       <c r="J48" s="45" t="n">
         <v>7513.739189999999</v>
@@ -3225,17 +2890,22 @@
         <v>11554.26602</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>16007.98153</v>
+        <v>16008.22858</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>14203.33946</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>14304.29388</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>34271.592</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>1288.16173</v>
@@ -3253,10 +2923,10 @@
         <v>913.66004</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>2186.88779</v>
+        <v>2321.17757</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>1960.33931</v>
+        <v>2682.92101</v>
       </c>
       <c r="J49" s="21" t="n">
         <v>5218.1743</v>
@@ -3265,17 +2935,22 @@
         <v>7922.557269999999</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>15035.18809</v>
+        <v>15035.43514</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>12831.5153</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>12932.46972</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>28659.739</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>125.50377</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>1371.82416</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>5611.853</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>2220.83734</v>
@@ -3324,38 +3004,43 @@
         <v>4484.64819</v>
       </c>
       <c r="E51" s="46" t="n">
-        <v>9038.813370000002</v>
+        <v>9038.81337</v>
       </c>
       <c r="F51" s="45" t="n">
         <v>15223.14292</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>28027.49924</v>
+        <v>28123.49809</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>29388.78079</v>
+        <v>29458.00624</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>34681.44644</v>
+        <v>36111.71380999999</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>39740.47025</v>
+        <v>39967.66972</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>45373.22596</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>55753.87149</v>
+        <v>55788.52565</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>81090.66756</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>81357.49585000001</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>160100.53</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>1554.64351</v>
@@ -3370,32 +3055,37 @@
         <v>10486.85193</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>19269.6732</v>
+        <v>19365.67205</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>22492.38396</v>
+        <v>22560.39857</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>28237.51772</v>
+        <v>29608.17116</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>29456.89906</v>
+        <v>29684.09853</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>33697.96411</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>47799.32455</v>
+        <v>47821.89265000001</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>72730.65969999999</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>72985.44235</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>150276.743</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>0</v>
@@ -3425,17 +3115,22 @@
         <v>237.72729</v>
       </c>
       <c r="L53" s="22" t="n">
-        <v>271.52254</v>
+        <v>283.6086</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>1486.05038</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>1488.33494</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>163.339</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>202.1693</v>
@@ -3465,23 +3160,28 @@
         <v>3674.17733</v>
       </c>
       <c r="L54" s="22" t="n">
-        <v>668.2742600000001</v>
+        <v>668.27426</v>
       </c>
       <c r="M54" s="22" t="n">
         <v>640.41275</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>1131.273</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>302.67319</v>
       </c>
       <c r="D55" s="22" t="n">
-        <v>905.5603599999998</v>
+        <v>905.5603599999999</v>
       </c>
       <c r="E55" s="22" t="n">
         <v>397.40873</v>
@@ -3505,17 +3205,22 @@
         <v>1749.65213</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>906.0701299999999</v>
+        <v>906.0701299999998</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>951.57482</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>968.8358999999999</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>2624.077</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>117.36135</v>
@@ -3524,38 +3229,43 @@
         <v>204.783</v>
       </c>
       <c r="E56" s="22" t="n">
-        <v>620.1491100000001</v>
+        <v>620.14911</v>
       </c>
       <c r="F56" s="21" t="n">
-        <v>3178.74908</v>
+        <v>3178.749080000001</v>
       </c>
       <c r="G56" s="22" t="n">
-        <v>6369.280669999999</v>
+        <v>6369.28067</v>
       </c>
       <c r="H56" s="21" t="n">
-        <v>3340.54801</v>
+        <v>3341.75885</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>2919.22663</v>
+        <v>2978.84056</v>
       </c>
       <c r="J56" s="21" t="n">
         <v>4126.14021</v>
       </c>
       <c r="K56" s="22" t="n">
-        <v>5193.889399999999</v>
+        <v>5193.8894</v>
       </c>
       <c r="L56" s="22" t="n">
         <v>5693.323560000001</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>4653.83937</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>4646.33937</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>5240.145</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>35.55799</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>562.17286</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>601.588</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>8.432</v>
@@ -3668,13 +3388,18 @@
         <v>55.48096</v>
       </c>
       <c r="M59" s="22" t="n">
-        <v>65.95768</v>
-      </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+        <v>65.95768000000001</v>
+      </c>
+      <c r="N59" s="22" t="n">
+        <v>63.365</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>84912.78769</v>
@@ -3729,32 +3459,37 @@
         <v>217358.38348</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>272690.17116</v>
+        <v>272816.03298</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>365884.66251</v>
+        <v>374094.26824</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>446764.5294</v>
+        <v>476766.35784</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>504497.45923</v>
+        <v>505355.71429</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>684803.54235</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>1085934.72816</v>
+        <v>1085940.07892</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>1434790.58771</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>1438916.47138</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>3784317.951</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>91.84654999999999</v>
@@ -3775,26 +3510,31 @@
         <v>279.56967</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>360.83622</v>
+        <v>369.63622</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>491.9157899999999</v>
+        <v>491.91579</v>
       </c>
       <c r="K62" s="36" t="n">
         <v>869.84204</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>5602.39449</v>
+        <v>5602.394490000001</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>4784.115</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>4784.619040000001</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>3675.167</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>677.1845</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>112.606</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>91.84654999999999</v>
@@ -3975,26 +3735,31 @@
         <v>279.56967</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>285.83622</v>
+        <v>294.63622</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>416.9157899999999</v>
+        <v>416.91579</v>
       </c>
       <c r="K67" s="22" t="n">
         <v>794.84204</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>3597.394490000001</v>
+        <v>3597.39449</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>4106.9305</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>4107.43454</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>3562.561</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>1515.84081</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>28689.18746</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>228838.779</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>0</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>2095.4335</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>220377.881</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>1.179</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>1515.84081</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>26593.75396</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>8459.718999999999</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>12228.5584</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>157932.67423</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>672667.9</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>12291.1084</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>4155.72755</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>7469.728</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>62.55</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>4.875</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>0</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>176318.16193</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>680704.134</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>22536.34025</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>15505.962</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>59949.09567</v>
@@ -4809,32 +4674,37 @@
         <v>181118.17109</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>234937.46562</v>
+        <v>235051.31314</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>298207.4120900001</v>
+        <v>301745.53902</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>336664.13499</v>
+        <v>360477.74738</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>358609.2375399999</v>
+        <v>359467.21363</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>451288.7443500001</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>767403.9090700001</v>
+        <v>767409.2598299999</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>1030247.32387</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>1033780.60097</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>2411284.062</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>6989.11524</v>
@@ -4852,10 +4722,10 @@
         <v>9875.6774</v>
       </c>
       <c r="H89" s="21" t="n">
-        <v>18740.99444</v>
+        <v>18883.61444</v>
       </c>
       <c r="I89" s="22" t="n">
-        <v>16789.92192</v>
+        <v>17303.77992</v>
       </c>
       <c r="J89" s="21" t="n">
         <v>16378.53391</v>
@@ -4867,20 +4737,25 @@
         <v>105393.57567</v>
       </c>
       <c r="M89" s="22" t="n">
-        <v>110131.19452</v>
-      </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+        <v>110234.59052</v>
+      </c>
+      <c r="N89" s="22" t="n">
+        <v>115493.166</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>6638.874390000001</v>
       </c>
       <c r="D90" s="22" t="n">
-        <v>8052.26002</v>
+        <v>8052.260020000001</v>
       </c>
       <c r="E90" s="22" t="n">
         <v>15666.94188</v>
@@ -4904,17 +4779,22 @@
         <v>30321.99116</v>
       </c>
       <c r="L90" s="22" t="n">
-        <v>35577.53699999999</v>
+        <v>35577.537</v>
       </c>
       <c r="M90" s="22" t="n">
         <v>62285.14504</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>63601.208</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>10633.75067</v>
@@ -4947,14 +4827,19 @@
         <v>137487.65959</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>167475.1038</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>167496.53468</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>195291.573</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>27656.1368</v>
@@ -4963,41 +4848,46 @@
         <v>39961.93408</v>
       </c>
       <c r="E92" s="22" t="n">
-        <v>55763.33511000001</v>
+        <v>55763.33511</v>
       </c>
       <c r="F92" s="21" t="n">
-        <v>66477.46745</v>
+        <v>66477.46744999998</v>
       </c>
       <c r="G92" s="22" t="n">
-        <v>107322.2597</v>
+        <v>107348.8597</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>156007.79208</v>
+        <v>160148.48755</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>195024.01893</v>
+        <v>211629.38302</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>242342.36322</v>
+        <v>242587.46322</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>257476.05705</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>393382.5539699999</v>
+        <v>393387.90473</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>518044.0316699999</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>509701.17558</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>1168987.346</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
-        <v>7800.35394</v>
+        <v>7800.353939999999</v>
       </c>
       <c r="D93" s="22" t="n">
         <v>10989.56997</v>
@@ -5009,13 +4899,13 @@
         <v>19328.39114</v>
       </c>
       <c r="G93" s="22" t="n">
-        <v>24044.25117</v>
+        <v>24128.63504</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>37134.32385</v>
+        <v>39000.15518</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>44316.24912</v>
+        <v>47056.25038</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>55692.10494</v>
@@ -5027,54 +4917,64 @@
         <v>99079.01797999999</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>101107.54506</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>102484.97116</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>132216.424</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>2689.65493</v>
       </c>
       <c r="D94" s="22" t="n">
-        <v>4399.8142</v>
+        <v>4399.814199999999</v>
       </c>
       <c r="E94" s="22" t="n">
         <v>6140.93099</v>
       </c>
       <c r="F94" s="21" t="n">
-        <v>8139.89781</v>
+        <v>8139.897809999999</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>9669.15892</v>
+        <v>9687.303329999999</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>13525.91563</v>
+        <v>13723.47061</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>15674.6892</v>
+        <v>16160.78076</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>22131.16262</v>
+        <v>22134.09874</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>28237.424</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>35010.26543</v>
+        <v>35010.26543000001</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>41370.63171</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>41474.43015</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>53298.127</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>29.87716</v>
@@ -5104,17 +5004,22 @@
         <v>154.65482</v>
       </c>
       <c r="L95" s="22" t="n">
-        <v>4600.149729999999</v>
+        <v>4600.14973</v>
       </c>
       <c r="M95" s="22" t="n">
         <v>59.91226</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>320.509</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>11243.51025</v>
@@ -5129,13 +5034,13 @@
         <v>53012.32115</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>73695.06124</v>
+        <v>73766.04823999999</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>111434.828</v>
+        <v>114255.3563</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>125740.37983</v>
+        <v>131151.81665</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>167264.41154</v>
@@ -5147,14 +5052,19 @@
         <v>266986.36548</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>312031.10922</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>312645.83775</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>495913.388</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>8186.540639999999</v>
@@ -5169,16 +5079,16 @@
         <v>68370.77853999998</v>
       </c>
       <c r="G97" s="22" t="n">
-        <v>74535.85202999999</v>
+        <v>74591.55827000001</v>
       </c>
       <c r="H97" s="21" t="n">
-        <v>69060.16284</v>
+        <v>69072.11629000001</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>60003.76643</v>
+        <v>61334.23053</v>
       </c>
       <c r="J97" s="21" t="n">
-        <v>48572.82124</v>
+        <v>49182.76121</v>
       </c>
       <c r="K97" s="22" t="n">
         <v>101140.784</v>
@@ -5187,14 +5097,19 @@
         <v>200239.28335</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>318265.08792</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>321330.4243099999</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>1136851.332</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>568.30215</v>
@@ -5215,7 +5130,7 @@
         <v>9806.788929999999</v>
       </c>
       <c r="I98" s="22" t="n">
-        <v>8025.45402</v>
+        <v>15574.72422</v>
       </c>
       <c r="J98" s="21" t="n">
         <v>10603.91583</v>
@@ -5227,14 +5142,19 @@
         <v>23620.23183</v>
       </c>
       <c r="M98" s="22" t="n">
-        <v>23539.78111</v>
-      </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+        <v>31359.25502</v>
+      </c>
+      <c r="N98" s="22" t="n">
+        <v>41137.765</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>10894.45392</v>
@@ -5249,32 +5169,37 @@
         <v>14352.6827</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>21055.77894</v>
+        <v>21067.717</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>44027.88833</v>
+        <v>48653.68856</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>63704.85807000001</v>
+        <v>69510.90473000001</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>67220.20217</v>
+        <v>67220.48114</v>
       </c>
       <c r="K99" s="23" t="n">
-        <v>77989.02791999999</v>
+        <v>77989.02792000001</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>88039.12381999999</v>
+        <v>88039.12382000001</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>107515.84329</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>107550.81144</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>259597.274</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>7741.2739</v>
@@ -5292,13 +5217,13 @@
         <v>17275.0176</v>
       </c>
       <c r="H100" s="21" t="n">
-        <v>34511.87218999999</v>
+        <v>41032.6087</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>56177.30981</v>
+        <v>64816.05684</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>62040.34467</v>
+        <v>62040.34466999999</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>76195.73014</v>
@@ -5309,12 +5234,17 @@
       <c r="M100" s="22" t="n">
         <v>80794.78231000001</v>
       </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+      <c r="N100" s="22" t="n">
+        <v>131009.502</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>28311.636</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>86.92725</v>
@@ -5375,10 +5310,10 @@
         <v>2281.78251</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>2270.12398</v>
+        <v>2271.03398</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>2298.93217</v>
+        <v>2299.21114</v>
       </c>
       <c r="K102" s="22" t="n">
         <v>2362.98071</v>
@@ -5387,14 +5322,19 @@
         <v>2287.61499</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>2259.20499</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>2271.27274</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>2264.063</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>1481.94611</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>3955.115</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>6251.43849</v>
@@ -5443,19 +5388,19 @@
         <v>7261.134489999999</v>
       </c>
       <c r="E104" s="22" t="n">
-        <v>8911.735690000001</v>
+        <v>8911.73569</v>
       </c>
       <c r="F104" s="21" t="n">
-        <v>8954.483969999999</v>
+        <v>8954.483970000001</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>9968.68996</v>
+        <v>9984.39272</v>
       </c>
       <c r="H104" s="21" t="n">
-        <v>18568.622</v>
+        <v>18955.04397</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>20289.1515</v>
+        <v>20826.11781</v>
       </c>
       <c r="J104" s="21" t="n">
         <v>25818.72633</v>
@@ -5467,14 +5412,19 @@
         <v>36954.55483</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>63734.05735</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>63805.70735</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>153892.592</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>30.07639</v>
@@ -5495,7 +5445,7 @@
         <v>412.08949</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>9268.069940000001</v>
+        <v>9397.144940000002</v>
       </c>
       <c r="J105" s="21" t="n">
         <v>9474.71888</v>
@@ -5509,33 +5459,38 @@
       <c r="M105" s="22" t="n">
         <v>11024.87366</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>11555.242</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>3386.48211</v>
       </c>
       <c r="D106" s="22" t="n">
-        <v>5197.086609999999</v>
+        <v>5197.08661</v>
       </c>
       <c r="E106" s="22" t="n">
         <v>7040.130740000001</v>
       </c>
       <c r="F106" s="21" t="n">
-        <v>6711.546379999999</v>
+        <v>6711.54638</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>8820.341130000001</v>
+        <v>8824.10583</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>11765.47797</v>
+        <v>14046.83622</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>24306.04499</v>
+        <v>27805.69667</v>
       </c>
       <c r="J106" s="21" t="n">
         <v>32416.51988</v>
@@ -5547,14 +5502,19 @@
         <v>49465.79294</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>52023.27213</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>52072.02173000001</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>71395.876</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>171.22</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>244.251</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>1312.83423</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>2350.451</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>808.83912</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>808.8390000000001</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>630.245</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>630.245</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>7505.619</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>126.25</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>6594.252</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,18 +5819,23 @@
       <c r="M113" s="22" t="n">
         <v>0.00011</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>232.99234</v>
       </c>
       <c r="D114" s="23" t="n">
-        <v>504.71778</v>
+        <v>504.7177799999999</v>
       </c>
       <c r="E114" s="23" t="n">
         <v>7995.4749</v>
@@ -5849,16 +5844,16 @@
         <v>8364.21297</v>
       </c>
       <c r="G114" s="23" t="n">
-        <v>3578.22326</v>
+        <v>3578.2995</v>
       </c>
       <c r="H114" s="33" t="n">
         <v>4665.320839999999</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>17889.96385</v>
+        <v>18263.33324</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>32065.71433000001</v>
+        <v>32065.71433</v>
       </c>
       <c r="K114" s="23" t="n">
         <v>50347.11958999999</v>
@@ -5867,35 +5862,40 @@
         <v>56142.13453</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>93531.45226999998</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>93759.31447</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>195768.85</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>232.99234</v>
       </c>
       <c r="D115" s="22" t="n">
-        <v>504.71778</v>
+        <v>504.7177799999999</v>
       </c>
       <c r="E115" s="22" t="n">
-        <v>7995.4749</v>
+        <v>7995.474899999999</v>
       </c>
       <c r="F115" s="21" t="n">
         <v>8364.21297</v>
       </c>
       <c r="G115" s="22" t="n">
-        <v>3578.22326</v>
+        <v>3578.2995</v>
       </c>
       <c r="H115" s="21" t="n">
         <v>4665.320839999999</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>17840.2333</v>
+        <v>18213.60269</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>32065.69768</v>
@@ -5904,17 +5904,22 @@
         <v>50347.10294</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>54334.55676</v>
+        <v>54334.55676000001</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>93531.28562</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>93759.14782</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>195768.85</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0.16665</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>0</v>
@@ -5972,7 +5982,7 @@
         <v>387.8247</v>
       </c>
       <c r="H117" s="33" t="n">
-        <v>637.6170400000001</v>
+        <v>683.29561</v>
       </c>
       <c r="I117" s="23" t="n">
         <v>1011.87349</v>
@@ -5987,14 +5997,19 @@
         <v>12313.85154</v>
       </c>
       <c r="M117" s="23" t="n">
-        <v>10777.15736</v>
-      </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+        <v>11106.42954</v>
+      </c>
+      <c r="N117" s="23" t="n">
+        <v>10135.468</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0</v>
@@ -6012,7 +6027,7 @@
         <v>10.263</v>
       </c>
       <c r="H118" s="21" t="n">
-        <v>198.25827</v>
+        <v>243.93684</v>
       </c>
       <c r="I118" s="22" t="n">
         <v>572.51472</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6067,14 +6087,19 @@
         <v>0</v>
       </c>
       <c r="M119" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+        <v>321.77218</v>
+      </c>
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>136.94907</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>136.949</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6187,14 +6222,19 @@
         <v>387.64728</v>
       </c>
       <c r="M122" s="22" t="n">
-        <v>499.4366</v>
-      </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+        <v>506.9366</v>
+      </c>
+      <c r="N122" s="22" t="n">
+        <v>370.107</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>1416.16692</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>1416.29</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6301,7 +6351,7 @@
         <v>0.30254</v>
       </c>
       <c r="K125" s="22" t="n">
-        <v>83.23949</v>
+        <v>83.23948999999999</v>
       </c>
       <c r="L125" s="22" t="n">
         <v>83.23948999999999</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>83.23948999999999</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>83.23999999999999</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>8807.84426</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>8295.361999999999</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>266318.72686</v>
@@ -6366,32 +6426,35 @@
         <v>333415.77</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>453206.6939600001</v>
+        <v>453206.69396</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>625250.3817499999</v>
+        <v>625601.45297</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>813416.5221799999</v>
+        <v>836536.6085799999</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>961294.66546</v>
+        <v>1014059.31471</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>1077253.61555</v>
+        <v>1078474.48698</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>1368350.95201</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>1920710.58858</v>
+        <v>1921138.74439</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>2634867.12517</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>2642167.6427</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>5664600.62</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>382-Waste treatment and disposal</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>161582.55718</v>
@@ -6501,32 +6578,37 @@
         <v>189504.15209</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>308900.37222</v>
+        <v>309032.78155</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>352350.00366</v>
+        <v>359395.91686</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>419943.19525</v>
+        <v>451969.01124</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>475098.50908</v>
+        <v>475875.87129</v>
       </c>
       <c r="K132" s="23" t="n">
-        <v>552553.8153</v>
+        <v>552553.8152999999</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>742756.39159</v>
+        <v>743190.9611300001</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>1049929.38555</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>1054851.27305</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>2765973.748</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>7657.38553</v>
@@ -6541,13 +6623,13 @@
         <v>55950.91849</v>
       </c>
       <c r="G133" s="23" t="n">
-        <v>97642.71061999998</v>
+        <v>97654.27085</v>
       </c>
       <c r="H133" s="33" t="n">
-        <v>86315.38519</v>
+        <v>88428.10722000002</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>101107.11739</v>
+        <v>107777.32241</v>
       </c>
       <c r="J133" s="33" t="n">
         <v>91541.37258</v>
@@ -6559,14 +6641,19 @@
         <v>161044.3153</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>163537.29348</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>163556.48159</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>500272.33</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>6112.064859999999</v>
@@ -6581,32 +6668,37 @@
         <v>54107.55989</v>
       </c>
       <c r="G134" s="22" t="n">
-        <v>95212.91030000002</v>
+        <v>95224.47053000001</v>
       </c>
       <c r="H134" s="21" t="n">
-        <v>83126.32421999999</v>
+        <v>83973.23659999999</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>95139.46994</v>
+        <v>100448.65336</v>
       </c>
       <c r="J134" s="21" t="n">
         <v>83256.69062000001</v>
       </c>
       <c r="K134" s="22" t="n">
-        <v>77741.49994999998</v>
+        <v>77741.49995</v>
       </c>
       <c r="L134" s="22" t="n">
         <v>102170.6324</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>114788.48156</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>114798.97789</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>399622.542</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>1790.88168</v>
@@ -6624,10 +6716,10 @@
         <v>1986.32253</v>
       </c>
       <c r="H135" s="21" t="n">
-        <v>2896.6667</v>
+        <v>4322.762299999999</v>
       </c>
       <c r="I135" s="22" t="n">
-        <v>6867.356400000001</v>
+        <v>8473.4984</v>
       </c>
       <c r="J135" s="21" t="n">
         <v>9580.776870000002</v>
@@ -6641,15 +6733,20 @@
       <c r="M135" s="22" t="n">
         <v>11046.48652</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>16311.006</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
-        <v>330.8127900000001</v>
+        <v>330.81279</v>
       </c>
       <c r="D136" s="22" t="n">
         <v>88.15783999999999</v>
@@ -6664,10 +6761,10 @@
         <v>362.65171</v>
       </c>
       <c r="H136" s="21" t="n">
-        <v>919.9282099999999</v>
+        <v>1080.21416</v>
       </c>
       <c r="I136" s="22" t="n">
-        <v>1287.19587</v>
+        <v>1532.31627</v>
       </c>
       <c r="J136" s="21" t="n">
         <v>1831.78619</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>3036.44415</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>4615.205</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>71.37733999999999</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>40351.97267</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>88488.136</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>13.87444</v>
@@ -6916,17 +7043,22 @@
         <v>347.59594</v>
       </c>
       <c r="L142" s="22" t="n">
-        <v>596.4820500000001</v>
+        <v>596.48205</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>386.79688</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>395.48866</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>465.851</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>27702.74783</v>
@@ -6941,32 +7073,37 @@
         <v>74374.88308</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>91491.37126</v>
+        <v>91521.90779999999</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>86046.42539</v>
+        <v>89040.37814999999</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>117798.37838</v>
+        <v>121319.60826</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>135328.42009</v>
+        <v>135905.33151</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>225611.65843</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>215804.4595</v>
+        <v>216177.25929</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>309154.48589</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>315983.15687</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>599202.277</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>11478.32542</v>
@@ -6981,32 +7118,37 @@
         <v>35982.23477</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>40929.3295</v>
+        <v>40959.86604</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>65544.30897</v>
+        <v>67422.85618</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>90045.20042000001</v>
+        <v>92193.85400000001</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>109304.01969</v>
+        <v>109444.94711</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>159853.18429</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>170664.71174</v>
+        <v>171037.51153</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>262859.71796</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>267080.21777</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>431926.928</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>2993.4706</v>
@@ -7024,10 +7166,10 @@
         <v>16649.73015</v>
       </c>
       <c r="H145" s="24" t="n">
-        <v>17479.55148</v>
+        <v>18594.95703</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>23314.03744</v>
+        <v>24686.61374</v>
       </c>
       <c r="J145" s="24" t="n">
         <v>18484.7763</v>
@@ -7039,14 +7181,19 @@
         <v>29633.21072</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>32607.29666</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>34668.8476</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>154943.909</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>390.12767</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>3540.54927</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>4310.128</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>12840.82414</v>
@@ -7141,32 +7298,37 @@
         <v>15838.11876</v>
       </c>
       <c r="G148" s="25" t="n">
-        <v>31091.43355999999</v>
+        <v>31091.43356</v>
       </c>
       <c r="H148" s="24" t="n">
         <v>2545.58322</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>3864.90933</v>
+        <v>3864.909329999999</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>7149.941</v>
+        <v>7585.925000000001</v>
       </c>
       <c r="K148" s="25" t="n">
-        <v>8908.660959999999</v>
+        <v>8908.660960000001</v>
       </c>
       <c r="L148" s="25" t="n">
         <v>12337.45365</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>10146.922</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>10693.54223</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>8021.312</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>121938.81865</v>
@@ -7181,32 +7343,37 @@
         <v>36386.98078</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>68009.70891</v>
+        <v>68042.98110999999</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>64315.93239</v>
+        <v>64468.85887</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>108264.8013</v>
+        <v>128648.69066</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>186402.65801</v>
+        <v>186576.15801</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>174839.5976</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>232391.34364</v>
+        <v>232430.13441</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>453374.5399799999</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>450426.18412</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>1369957.501</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>119879.17741</v>
@@ -7224,29 +7391,34 @@
         <v>32263.18734</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>46155.0865</v>
+        <v>46209.9824</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>45428.59362</v>
+        <v>55566.13371</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>90717.44389999998</v>
+        <v>90890.94390000001</v>
       </c>
       <c r="K150" s="22" t="n">
-        <v>85619.24610999998</v>
+        <v>85619.24610999999</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>105658.48426</v>
+        <v>105697.27503</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>174140.97997</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>176979.49939</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>490196.572</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>478.75008</v>
@@ -7279,14 +7451,19 @@
         <v>10930.45943</v>
       </c>
       <c r="M151" s="22" t="n">
-        <v>6374.62543</v>
-      </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+        <v>7141.096219999999</v>
+      </c>
+      <c r="N151" s="22" t="n">
+        <v>1483.074</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7319,14 +7496,19 @@
         <v>20026.76123</v>
       </c>
       <c r="M152" s="22" t="n">
-        <v>28237.78732</v>
-      </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+        <v>21160.51502</v>
+      </c>
+      <c r="N152" s="22" t="n">
+        <v>314066.007</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>1278.09679</v>
@@ -7341,13 +7523,13 @@
         <v>1946.21328</v>
       </c>
       <c r="G153" s="22" t="n">
-        <v>3172.17592</v>
+        <v>3181.44812</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>4070.636590000001</v>
+        <v>4168.37094</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>5839.19079</v>
+        <v>6041.08417</v>
       </c>
       <c r="J153" s="21" t="n">
         <v>5519.06646</v>
@@ -7359,14 +7541,19 @@
         <v>8437.97107</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>11084.52482</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>11132.68988</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>14126.873</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>302.79437</v>
@@ -7381,13 +7568,13 @@
         <v>14889.06381</v>
       </c>
       <c r="G154" s="22" t="n">
-        <v>31776.72196</v>
+        <v>31800.72196</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>13095.47442</v>
+        <v>13095.77065</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>56451.20679</v>
+        <v>66495.66267999999</v>
       </c>
       <c r="J154" s="21" t="n">
         <v>86957.34054999999</v>
@@ -7399,14 +7586,19 @@
         <v>87337.66764999999</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>233536.62244</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>234012.38361</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>550084.975</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>583.2441900000001</v>
@@ -7461,13 +7658,13 @@
         <v>11883.19591</v>
       </c>
       <c r="G156" s="23" t="n">
-        <v>31974.39895</v>
+        <v>32015.71535</v>
       </c>
       <c r="H156" s="33" t="n">
-        <v>99738.40763999999</v>
+        <v>100810.1785</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>75170.0481</v>
+        <v>75242.79431999999</v>
       </c>
       <c r="J156" s="33" t="n">
         <v>34062.51397</v>
@@ -7479,14 +7676,19 @@
         <v>71498.10495000001</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>63427.60262999999</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>63451.04384000001</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>176113.122</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>583.2441900000001</v>
@@ -7501,13 +7703,13 @@
         <v>10173.44173</v>
       </c>
       <c r="G157" s="22" t="n">
-        <v>31962.47841</v>
+        <v>32003.79481</v>
       </c>
       <c r="H157" s="21" t="n">
-        <v>94280.96292999998</v>
+        <v>95352.73379</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>71681.84378</v>
+        <v>71754.59</v>
       </c>
       <c r="J157" s="21" t="n">
         <v>33634.67787</v>
@@ -7519,14 +7721,19 @@
         <v>67238.24066</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>54088.9602</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>54104.48823</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>172811.822</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>0</v>
@@ -7559,14 +7766,19 @@
         <v>4259.86429</v>
       </c>
       <c r="M158" s="22" t="n">
-        <v>9338.64243</v>
-      </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+        <v>9346.555609999999</v>
+      </c>
+      <c r="N158" s="22" t="n">
+        <v>3301.3</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>7108.48791</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>12336.893</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>7108.48791</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>12336.893</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>3294.19743</v>
@@ -7701,32 +7928,37 @@
         <v>6380.70626</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>8407.65324</v>
+        <v>8412.365530000001</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>10917.73413</v>
+        <v>11632.2752</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>13192.52747</v>
+        <v>14570.27298</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>21294.21084</v>
+        <v>21321.16163</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>25625.64701</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>31671.16175</v>
+        <v>31684.98773</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>33969.68515</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>34933.31655</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>48699.109</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>2188.37588</v>
@@ -7741,32 +7973,37 @@
         <v>2838.33409</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>4350.53941</v>
+        <v>4353.51427</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>4527.44113</v>
+        <v>4573.400909999999</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>6606.337939999999</v>
+        <v>7113.36691</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>8199.18296</v>
+        <v>8202.240330000001</v>
       </c>
       <c r="K163" s="22" t="n">
-        <v>9776.952869999999</v>
+        <v>9776.952870000001</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>12344.2941</v>
+        <v>12347.93698</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>15669.1277</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>16330.07193</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>23347.542</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>856.06607</v>
@@ -7781,32 +8018,37 @@
         <v>2660.26263</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>3016.903940000001</v>
+        <v>3018.64137</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>4261.24988</v>
+        <v>4309.771849999999</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>4217.66293</v>
+        <v>4609.7288</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>5861.80738</v>
+        <v>5869.75066</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>6307.735390000001</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>8545.849029999999</v>
+        <v>8556.03213</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>8249.57727</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>8464.39214</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>9298.878000000001</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>249.00423</v>
@@ -7818,19 +8060,19 @@
         <v>903.2584499999999</v>
       </c>
       <c r="F165" s="21" t="n">
-        <v>882.1095399999999</v>
+        <v>882.10954</v>
       </c>
       <c r="G165" s="22" t="n">
         <v>1037.74034</v>
       </c>
       <c r="H165" s="21" t="n">
-        <v>2116.31846</v>
+        <v>2631.20536</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>2352.85471</v>
+        <v>2785.82681</v>
       </c>
       <c r="J165" s="21" t="n">
-        <v>7181.082379999999</v>
+        <v>7197.03252</v>
       </c>
       <c r="K165" s="22" t="n">
         <v>9434.989150000001</v>
@@ -7839,14 +8081,19 @@
         <v>10602.29538</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>9905.537829999999</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>9992.118129999999</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>14639.697</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>0.75125</v>
@@ -7864,10 +8111,10 @@
         <v>2.46955</v>
       </c>
       <c r="H166" s="21" t="n">
-        <v>12.72466</v>
+        <v>117.89708</v>
       </c>
       <c r="I166" s="22" t="n">
-        <v>15.67189</v>
+        <v>61.35046</v>
       </c>
       <c r="J166" s="21" t="n">
         <v>52.13812</v>
@@ -7879,14 +8126,19 @@
         <v>178.72324</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>145.44235</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>146.73435</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>1412.992</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>402.11018</v>
@@ -7901,7 +8153,7 @@
         <v>2200.4111</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>4016.34599</v>
+        <v>4027.35766</v>
       </c>
       <c r="H167" s="33" t="n">
         <v>2596.60219</v>
@@ -7919,14 +8171,19 @@
         <v>4141.26172</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>3237.05858</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>3272.37024</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>18889.326</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>722.5003999999999</v>
@@ -7944,35 +8201,40 @@
         <v>10177.45741</v>
       </c>
       <c r="H168" s="21" t="n">
-        <v>7850.815050000001</v>
+        <v>9310.311879999999</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>5466.695809999999</v>
+        <v>5745.979740000001</v>
       </c>
       <c r="J168" s="21" t="n">
         <v>5399.95336</v>
       </c>
       <c r="K168" s="22" t="n">
-        <v>7481.650019999999</v>
+        <v>7481.65002</v>
       </c>
       <c r="L168" s="22" t="n">
         <v>8476.01273</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>20587.47436</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>20603.78133</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>36024.232</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>320.3902200000001</v>
       </c>
       <c r="D169" s="22" t="n">
-        <v>915.0313200000001</v>
+        <v>915.0313199999999</v>
       </c>
       <c r="E169" s="22" t="n">
         <v>2615.29469</v>
@@ -7981,32 +8243,37 @@
         <v>1379.47142</v>
       </c>
       <c r="G169" s="22" t="n">
-        <v>6207.421480000001</v>
+        <v>6196.40981</v>
       </c>
       <c r="H169" s="21" t="n">
-        <v>5254.687790000001</v>
+        <v>6714.18462</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>3890.72399</v>
+        <v>4170.00792</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>4179.49701</v>
       </c>
       <c r="K169" s="22" t="n">
-        <v>5241.55655</v>
+        <v>5241.556550000001</v>
       </c>
       <c r="L169" s="22" t="n">
         <v>4456.75351</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>17350.41578</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>17331.41109</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>17230.74</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>95.834</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>4.05337</v>
@@ -8161,12 +8443,17 @@
       <c r="M173" s="23" t="n">
         <v>14919.42197</v>
       </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+      <c r="N173" s="23" t="n">
+        <v>40355.629</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>0</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>1.7725</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>3402.393</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>4.05337</v>
@@ -8215,7 +8507,7 @@
         <v>294.50076</v>
       </c>
       <c r="E175" s="22" t="n">
-        <v>600.2432499999999</v>
+        <v>600.24325</v>
       </c>
       <c r="F175" s="21" t="n">
         <v>653.5749000000001</v>
@@ -8241,12 +8533,17 @@
       <c r="M175" s="22" t="n">
         <v>14917.64947</v>
       </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+      <c r="N175" s="22" t="n">
+        <v>36953.236</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>0</v>
@@ -8264,7 +8561,7 @@
         <v>205.60025</v>
       </c>
       <c r="H176" s="33" t="n">
-        <v>486.8297</v>
+        <v>486.8296999999999</v>
       </c>
       <c r="I176" s="23" t="n">
         <v>765.3053899999999</v>
@@ -8276,17 +8573,22 @@
         <v>98.63075000000001</v>
       </c>
       <c r="L176" s="23" t="n">
-        <v>116.40247</v>
+        <v>125.55547</v>
       </c>
       <c r="M176" s="23" t="n">
         <v>1200.80996</v>
       </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+      <c r="N176" s="23" t="n">
+        <v>147.561</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0</v>
@@ -8316,17 +8618,22 @@
         <v>97.02905</v>
       </c>
       <c r="L177" s="22" t="n">
-        <v>116.40247</v>
+        <v>125.55547</v>
       </c>
       <c r="M177" s="22" t="n">
         <v>1200.80996</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>142.498</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8344,7 +8651,7 @@
         <v>205.42775</v>
       </c>
       <c r="H178" s="21" t="n">
-        <v>484.97258</v>
+        <v>484.9725799999999</v>
       </c>
       <c r="I178" s="22" t="n">
         <v>578.83371</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>5.063</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,18 +8803,23 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>42174.94891000001</v>
       </c>
       <c r="D182" s="23" t="n">
-        <v>47602.40934</v>
+        <v>47602.40934000001</v>
       </c>
       <c r="E182" s="23" t="n">
         <v>87152.82888</v>
@@ -8501,13 +8828,13 @@
         <v>72903.74524</v>
       </c>
       <c r="G182" s="23" t="n">
-        <v>95793.24453999999</v>
+        <v>95854.96008</v>
       </c>
       <c r="H182" s="33" t="n">
-        <v>204779.91119</v>
+        <v>208427.87334</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>262300.78319</v>
+        <v>273107.60153</v>
       </c>
       <c r="J182" s="33" t="n">
         <v>348472.68984</v>
@@ -8516,17 +8843,22 @@
         <v>444447.08588</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>694085.5572799999</v>
+        <v>694205.2482799999</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>940418.40258</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>940962.44371</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>1905150.883</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>33707.3023</v>
@@ -8541,13 +8873,13 @@
         <v>62705.08487</v>
       </c>
       <c r="G183" s="23" t="n">
-        <v>90382.0834</v>
+        <v>90443.79893999999</v>
       </c>
       <c r="H183" s="33" t="n">
-        <v>190245.65348</v>
+        <v>193460.64353</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>212858.60147</v>
+        <v>223665.41981</v>
       </c>
       <c r="J183" s="33" t="n">
         <v>278586.09491</v>
@@ -8559,14 +8891,19 @@
         <v>546893.68204</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>726171.89229</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>726229.90865</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>1760542.824</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>30722.37363</v>
@@ -8575,38 +8912,43 @@
         <v>33659.56490999999</v>
       </c>
       <c r="E184" s="22" t="n">
-        <v>70194.825</v>
+        <v>70194.82500000001</v>
       </c>
       <c r="F184" s="21" t="n">
-        <v>61289.96122999999</v>
+        <v>61289.96123</v>
       </c>
       <c r="G184" s="22" t="n">
-        <v>83705.79326000001</v>
+        <v>83767.5088</v>
       </c>
       <c r="H184" s="21" t="n">
-        <v>168907.38602</v>
+        <v>170036.85724</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>185885.17636</v>
+        <v>192756.72407</v>
       </c>
       <c r="J184" s="21" t="n">
         <v>250071.08321</v>
       </c>
       <c r="K184" s="22" t="n">
-        <v>311636.60656</v>
+        <v>311636.6065599999</v>
       </c>
       <c r="L184" s="22" t="n">
         <v>507790.8884000001</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>692036.62538</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>692094.64174</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>1708798.66</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>3261.91443</v>
@@ -8624,10 +8966,10 @@
         <v>7303.78375</v>
       </c>
       <c r="H185" s="21" t="n">
-        <v>23129.0937</v>
+        <v>25399.13588</v>
       </c>
       <c r="I185" s="22" t="n">
-        <v>28759.71392</v>
+        <v>33084.16971</v>
       </c>
       <c r="J185" s="21" t="n">
         <v>32834.81048</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>40588.3204</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>62255.674</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>276.98576</v>
@@ -8664,29 +9011,34 @@
         <v>627.49361</v>
       </c>
       <c r="H186" s="21" t="n">
-        <v>3480.52774</v>
+        <v>3665.05109</v>
       </c>
       <c r="I186" s="22" t="n">
-        <v>3742.3978</v>
+        <v>4131.58296</v>
       </c>
       <c r="J186" s="21" t="n">
         <v>5621.13322</v>
       </c>
       <c r="K186" s="22" t="n">
-        <v>5035.899629999999</v>
+        <v>5035.89963</v>
       </c>
       <c r="L186" s="22" t="n">
-        <v>7560.24377</v>
+        <v>7560.243769999999</v>
       </c>
       <c r="M186" s="22" t="n">
         <v>6453.05349</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>10511.51</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>0</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>70255.05258</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>32467.607</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>0</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>6151.362300000001</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>957.034</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>61076.21028</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>31487.846</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>3000</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,15 +9478,20 @@
       <c r="M196" s="22" t="n">
         <v>27.48</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>22.727</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
-        <v>8458.890280000001</v>
+        <v>8458.89028</v>
       </c>
       <c r="D197" s="23" t="n">
         <v>1247.69406</v>
@@ -9101,10 +9503,10 @@
         <v>6366.818389999999</v>
       </c>
       <c r="G197" s="23" t="n">
-        <v>4636.06519</v>
+        <v>4636.065189999999</v>
       </c>
       <c r="H197" s="33" t="n">
-        <v>13863.2809</v>
+        <v>14296.253</v>
       </c>
       <c r="I197" s="23" t="n">
         <v>36450.07389</v>
@@ -9113,20 +9515,25 @@
         <v>50647.59037000001</v>
       </c>
       <c r="K197" s="23" t="n">
-        <v>77687.76699</v>
+        <v>77687.76698999999</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>92700.23964</v>
+        <v>92808.93064000001</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>121042.87781</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>121528.90258</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>79593.802</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>1138.16563</v>
@@ -9135,7 +9542,7 @@
         <v>676.8071</v>
       </c>
       <c r="E198" s="22" t="n">
-        <v>4428.411069999999</v>
+        <v>4428.41107</v>
       </c>
       <c r="F198" s="21" t="n">
         <v>5928.92297</v>
@@ -9156,17 +9563,22 @@
         <v>68693.11974000001</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>86530.17637</v>
+        <v>86638.86737000001</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>50940.24501999999</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>50943.4501</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>55210.499</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>7320.72465</v>
@@ -9273,7 +9695,7 @@
         <v>11091.42094</v>
       </c>
       <c r="K201" s="22" t="n">
-        <v>7140.210859999999</v>
+        <v>7140.21086</v>
       </c>
       <c r="L201" s="22" t="n">
         <v>4265.589910000001</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>66987.01897</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>22596.641</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0</v>
@@ -9344,7 +9776,7 @@
         <v>0</v>
       </c>
       <c r="H203" s="21" t="n">
-        <v>0</v>
+        <v>432.9721</v>
       </c>
       <c r="I203" s="22" t="n">
         <v>0</v>
@@ -9359,14 +9791,19 @@
         <v>1904.47336</v>
       </c>
       <c r="M203" s="22" t="n">
-        <v>3115.61382</v>
-      </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+        <v>3598.43351</v>
+      </c>
+      <c r="N203" s="22" t="n">
+        <v>1786.662</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9396,17 +9833,22 @@
         <v>670.1929399999999</v>
       </c>
       <c r="L204" s="23" t="n">
-        <v>228.18357</v>
+        <v>239.18357</v>
       </c>
       <c r="M204" s="23" t="n">
         <v>1710.66365</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>6376.951</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9436,17 +9878,22 @@
         <v>83.4342</v>
       </c>
       <c r="L205" s="22" t="n">
-        <v>83.4342</v>
+        <v>94.4342</v>
       </c>
       <c r="M205" s="22" t="n">
         <v>83.4342</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>6376.951</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>1627.22945</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>0</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>20712.9781</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>25748.079</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>0</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>20712.9781</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>25748.079</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>8.75633</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>524.9381500000001</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>421.512</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>0</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>126.2816</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>8.75633</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>398.65655</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>421.512</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>62561.22076999999</v>
@@ -9895,38 +10397,43 @@
         <v>80685.24559000001</v>
       </c>
       <c r="E217" s="23" t="n">
-        <v>96449.47696</v>
+        <v>96449.47696000001</v>
       </c>
       <c r="F217" s="33" t="n">
         <v>190798.79663</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>220556.76499</v>
+        <v>220713.71134</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>256286.60733</v>
+        <v>268712.81838</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>279050.68702</v>
+        <v>288982.70194</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>253682.41663</v>
+        <v>254125.92585</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>371350.05083</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>483868.63971</v>
+        <v>483742.5349800001</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>644519.33704</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>646353.92594</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>993475.9889999999</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>40875.22605</v>
@@ -9941,16 +10448,16 @@
         <v>144265.18064</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>156141.21496</v>
+        <v>156241.21496</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>176101.85461</v>
+        <v>176201.85461</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>202179.68573</v>
+        <v>202418.43573</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>214817.48423</v>
+        <v>215879.02137</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>242355.72159</v>
@@ -9959,14 +10466,19 @@
         <v>395125.18791</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>513024.92875</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>518409.92875</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>808843.6</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>113772.99354</v>
@@ -9981,32 +10493,37 @@
         <v>159234.49354</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>170753.15713</v>
+        <v>170853.15713</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>185982.99354</v>
+        <v>186082.99354</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>211800.99354</v>
+        <v>212050.99354</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>224844.99354</v>
+        <v>226285.99354</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>263711.99354</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>484248.37659</v>
+        <v>485198.37659</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>617177.9370799999</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>624642.9370799999</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>929347.0820000001</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>72473.31125</v>
@@ -10024,29 +10541,34 @@
         <v>14122.35285</v>
       </c>
       <c r="H220" s="21" t="n">
-        <v>9339.52572</v>
+        <v>9339.525720000001</v>
       </c>
       <c r="I220" s="22" t="n">
-        <v>9120.587030000001</v>
+        <v>9131.837030000001</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>10174.05073</v>
+        <v>10553.51359</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>21502.81337</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>89269.73010000002</v>
+        <v>90219.7301</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>104299.54975</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>106379.54975</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>120650.025</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>275.10125</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>146.54142</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>146.543</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>699.55749</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>0.5777899999999999</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>70071.52456000001</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>59650</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>45137.8</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>1750</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>0.5777899999999999</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>0</v>
@@ -10441,21 +11008,26 @@
       <c r="M230" s="22" t="n">
         <v>24933.72456</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>57900</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>921.2638000000001</v>
       </c>
       <c r="D231" s="23" t="n">
-        <v>8777.846220000001</v>
+        <v>8777.846219999999</v>
       </c>
       <c r="E231" s="23" t="n">
-        <v>8980.195639999998</v>
+        <v>8980.19564</v>
       </c>
       <c r="F231" s="33" t="n">
         <v>9566.081310000001</v>
@@ -10464,10 +11036,10 @@
         <v>3739.51802</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>11574.53961</v>
+        <v>11594.53961</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>17687.99869</v>
+        <v>17707.99869</v>
       </c>
       <c r="J231" s="33" t="n">
         <v>20680.26775</v>
@@ -10479,14 +11051,19 @@
         <v>17500.1501</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>39351.5706</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>39351.57059999999</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>45403.734</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>595.6517700000001</v>
@@ -10495,7 +11072,7 @@
         <v>791.73377</v>
       </c>
       <c r="E232" s="22" t="n">
-        <v>980.2281899999999</v>
+        <v>980.22819</v>
       </c>
       <c r="F232" s="21" t="n">
         <v>1418.4949</v>
@@ -10504,10 +11081,10 @@
         <v>1734.49429</v>
       </c>
       <c r="H232" s="21" t="n">
-        <v>3034.32073</v>
+        <v>3054.32073</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>3121.45759</v>
+        <v>3141.45759</v>
       </c>
       <c r="J232" s="21" t="n">
         <v>3350.34687</v>
@@ -10521,12 +11098,17 @@
       <c r="M232" s="22" t="n">
         <v>5563.3493</v>
       </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+      <c r="N232" s="22" t="n">
+        <v>8674.187</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>4.00624</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>376.38758</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>520.5119999999999</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>1.60579</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>4713.441690000001</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>6227.334</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>234.28135</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>535.687</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>320</v>
@@ -10681,12 +11278,17 @@
       <c r="M236" s="22" t="n">
         <v>28464.11067999999</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>29446.014</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>18879.5043</v>
@@ -10704,29 +11306,34 @@
         <v>66607.98925</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>102427.37342</v>
+        <v>109014.18136</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>132569.89936</v>
+        <v>144876.11041</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>170727.60504</v>
+        <v>170791.90555</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>192574.62439</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>238074.86876</v>
+        <v>238079.06745</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>249106.45694</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>247969.69077</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>308727.444</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-4327.76863</v>
@@ -10741,38 +11348,43 @@
         <v>-28386.33915</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-33570.84883</v>
+        <v>-33630.00150999999</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-53467.31702</v>
+        <v>-53467.31701999999</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-62088.54427</v>
+        <v>-64452.44233999999</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-109416.32881</v>
+        <v>-110074.00038</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-178993.77264</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-211210.44254</v>
+        <v>-211267.70891</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-242253.98286</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-244592.02075</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-240165.647</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>6212.417460000001</v>
       </c>
       <c r="D239" s="23" t="n">
-        <v>673.4212599999997</v>
+        <v>673.4212600000002</v>
       </c>
       <c r="E239" s="23" t="n">
         <v>-3865.67707</v>
@@ -10781,32 +11393,37 @@
         <v>23277.44901</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>26561.77909</v>
+        <v>26677.87812</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>17808.98171</v>
+        <v>23528.38482</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-11541.72449</v>
+        <v>-11810.77255</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-43459.98358</v>
+        <v>-43484.64044</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>26895.8247</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-16004.97702</v>
+        <v>-16078.01407</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>15218.83905</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>15143.23201</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>11016.858</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>10739.01678</v>
@@ -10821,32 +11438,37 @@
         <v>29795.44625</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>44722.27441</v>
+        <v>44838.37344</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>38340.73465999999</v>
+        <v>44060.13877</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>34360.35419999999</v>
+        <v>35370.90531</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>27587.06028</v>
+        <v>27588.01028</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>68388.62356000001</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>44257.85563000001</v>
+        <v>44257.85563</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>72960.56690999999</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>73388.42533</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>176832.559</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>4526.59932</v>
@@ -10864,32 +11486,37 @@
         <v>18160.49532</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>20531.75295</v>
+        <v>20531.75395</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>45902.07868999999</v>
+        <v>47181.67786</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>71047.04386000001</v>
+        <v>71072.65072000001</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>41492.79886</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>60262.83265</v>
+        <v>60335.8697</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>57741.72786000001</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>58245.19332</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>165815.701</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
-        <v>266318.7268599999</v>
+        <v>266318.72686</v>
       </c>
       <c r="D242" s="47" t="n">
         <v>227858.86042</v>
@@ -10898,32 +11525,35 @@
         <v>333415.77</v>
       </c>
       <c r="F242" s="48" t="n">
-        <v>453206.69396</v>
+        <v>453206.6939599999</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>625250.3817499999</v>
+        <v>625601.45297</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>813416.52218</v>
+        <v>836536.6085799999</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>961294.6654600002</v>
+        <v>1014059.31471</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>1077253.61555</v>
+        <v>1078474.48698</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>1368350.95201</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>1920710.58858</v>
+        <v>1921138.74439</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>2634867.12517</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>2642167.6427</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>5664600.62</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>59</v>
@@ -10957,29 +11590,32 @@
         <v>94</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>206</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>241</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>255</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>277</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>